--- a/biology/Botanique/Jardin_botanique_de_Tunis/Jardin_botanique_de_Tunis.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Tunis/Jardin_botanique_de_Tunis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Jardin botanique de Tunis (arabe : حديقة تونس نباتية) est un jardin botanique situé dans le gouvernorat de Tunis, au nord de la Tunisie, et couvrant une superficie de huit hectares. Il est classé comme une réserve naturelle en 1996.
 </t>
@@ -511,9 +523,11 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin botanique se situe dans l'enceinte de deux instituts de recherche (INRAT (ar) et INRGREF (ar))[1], qui relèvent du ministère de l'Agriculture et des Ressources hydrauliques ; l'accès s'effectue par la rue Hédi-Karray qui longe la ligne 2 du métro léger[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin botanique se situe dans l'enceinte de deux instituts de recherche (INRAT (ar) et INRGREF (ar)), qui relèvent du ministère de l'Agriculture et des Ressources hydrauliques ; l'accès s'effectue par la rue Hédi-Karray qui longe la ligne 2 du métro léger.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un arboretum est créé à Tunis en 1880 pour étudier l'adaptation des espèces végétales et animales à l'environnement méditerranéen[1].
-Après dix ans de fermeture, il est rouvert le 5 juin 2022 à l'occasion de la célébration de la Journée mondiale de l'environnement[1]. Une passerelle le relie alors à la Cité des sciences voisine[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un arboretum est créé à Tunis en 1880 pour étudier l'adaptation des espèces végétales et animales à l'environnement méditerranéen.
+Après dix ans de fermeture, il est rouvert le 5 juin 2022 à l'occasion de la célébration de la Journée mondiale de l'environnement. Une passerelle le relie alors à la Cité des sciences voisine.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin est partagé en plusieurs subdivisions dont une palmeraie, une collection horticole, une collection géographique (eucalyptus et casuarina), une collection botanique (acacia et gleditsia) et des placettes expérimentales (arganiers)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin est partagé en plusieurs subdivisions dont une palmeraie, une collection horticole, une collection géographique (eucalyptus et casuarina), une collection botanique (acacia et gleditsia) et des placettes expérimentales (arganiers).
 </t>
         </is>
       </c>
